--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E51434-5409-FA4F-B198-56C9088656E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191E5289-AA7A-F94F-BC1E-3804554121F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -490,6 +490,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件取消接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel" : "jkjr",
+  "sourceCode" : "jkjr",
+  "sourceProjectId" : "string",
+  "projectId" : "string"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"sourceCode": "jkjr",
 	"channel": "jkjr",
@@ -518,7 +539,7 @@
 		"fourVerifyResult": "Y",
 		"liveAddressProvince": "110100",
 		"liveAddressCity": "110100",
-		"liveAddressBorough": "110500",
+		"liveAddressBorough": "110105",
 		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"personalEmail": "zhangsan@test.com",
 		"cardValidDate": "2029-12-10-9999-09-09",
@@ -565,7 +586,7 @@
 	"entityInfo": {
 		"manageAddressProvince": "110100",
 		"manageAddressCity": "110100",
-		"manageAddressBorough": "110500",
+		"manageAddressBorough": "110105",
 		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"isChangeForLegalPerson": 1,
 		"clinicName": "诊所名称",
@@ -579,7 +600,7 @@
 		"isAddressConsistent": "Y",
 		"registerAddressProvince": "110100",
 		"registerAddressCity": "110100",
-		"registerAddressBorough": "110500",
+		"registerAddressBorough": "110105",
 		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"cityGrading": 1,
 		"businessLicenseValidDate": "2029-12-10-9999-09-09",
@@ -649,27 +670,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>resultCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件取消接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel" : "jkjr",
-  "sourceCode" : "jkjr",
-  "sourceProjectId" : "string",
-  "projectId" : "string"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"serviceSn": "1234567890000",
 	"channel": "jkjr",
@@ -730,7 +730,7 @@
 			"productQuantity": 10,
 			"productUnitPrice": 100
 		}],
-		"deliveryAddressBorough": "110500",
+		"deliveryAddressBorough": "110105",
 		"deliveryAddressCity": "110100",
 		"deliveryAddressProvince": "110100",
 		"deliveryDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
@@ -818,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -957,11 +957,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1068,6 +1096,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3635,11 +3667,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
@@ -3670,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="408" customHeight="1">
@@ -3684,10 +3716,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="51">
         <v>2000</v>
       </c>
     </row>
@@ -3743,7 +3775,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3872,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3907,7 +3939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5088,17 +5120,17 @@
     </row>
     <row r="2" spans="1:6" ht="102">
       <c r="A2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>17</v>

--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191E5289-AA7A-F94F-BC1E-3804554121F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB8287-7CAA-234D-84CC-DC99F74C4AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -318,28 +318,6 @@
     <t>{
 	"channel": "jkjr",
 	"sourceCode": "jkjr",
-	"sourceProjectId": "",
-	"projectId": "",
-	"sourceUserId": "",
-	"serviceSn": "",
-	"amount": 50000,
-	"currency": "CNY",
-	"accountNo": "6214888888888888888",
-	"accountType": 0,
-	"accountName": "张三",
-	"accountProp": 1,
-	"idType": 0,
-	"bankCode": "CMB",
-	"openAccountProvince": "110000",
-	"openAccountCity": "110100",
-	"openAccountBankNameSub": "招商银行上地支行"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
 	"projectId": "196003904670949376",
 	"transactionId": "111353",
 	"sourceProjectId": "111353",
@@ -514,24 +492,24 @@
     <t>{
 	"sourceCode": "jkjr",
 	"channel": "jkjr",
-	"sourceUserId": "1234567890000",
-	"transactionId": "1234567890000",
-	"serviceSn": "1234567890000",
+	"sourceUserId": "54658",
+	"transactionId": "8180668929062786349",
+	"serviceSn": "8033795954",
 	"creditInfo": {
 		"sourceCreditAmt": 300000,
-		"sourceCreditRate": 0.120000,
+		"sourceCreditRate": 0.12,
 		"auditResult": 1
 	},
 	"applyInfo": {
-		"applyTime": "2020-05-06 12:30:30",
+		"applyTime": "2021-03-02 15:46:43",
 		"productGroup": 1121,
 		"applySource": "api",
 		"financeChannel": 1
 	},
 	"personalInfo": {
-		"custName": "张三",
-		"cardNum": "110100199010010001",
-		"phone": "13800138001",
+		"custName": "郭淑兰",
+		"cardNum": "141034197503167732",
+		"phone": "15537896229",
 		"sex": "M",
 		"age": 25,
 		"maritalStatus": 1,
@@ -567,13 +545,6 @@
 		"creditRepoForLoanApprovedQueryTimes": 1,
 		"creditRepoForCreditCardApprovedQueryTimes": 1
 	},
-	"bindingCardInfo": {
-		"bankCode": "86",
-		"bankNameSub": "招商银行北京分行",
-		"bankCardNo": "6214888888888888888",
-		"bankCardAccountType": 0,
-		"bankPhone": "13800138001"
-	},
 	"contactInfo": {
 		"spouseName": "李四",
 		"spousePhone": "13800138003",
@@ -591,7 +562,7 @@
 		"isChangeForLegalPerson": 1,
 		"clinicName": "诊所名称",
 		"isRequiredApplyLicense": "Y",
-		"unifiedSocialCreditCode": "XXX",
+		"unifiedSocialCreditCode": "556211803707544",
 		"permitRegistrationNumber": "84819923",
 		"hospitalCategory": 1,
 		"isThreeCertificatesInOne": "Y",
@@ -719,6 +690,13 @@
 	"imageInfo": {
 		"salesContractImage": "https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=4250058738,780121024&amp;fm=11&amp;gp=0.jpg"
 	},
+	"bindingCardInfo": {
+		"bankCode": "86",
+		"bankNameSub": "招商银行北京分行",
+		"bankCardNo": "6214888888888888888",
+		"bankCardAccountType": 0,
+		"bankPhone": "13800138001"
+	},
 	"entityInfo": {
 		"merchantDiscountRate": 0.120000,
 		"supplierName": "供应商名称",
@@ -742,6 +720,28 @@
 		"legalPersonIdcard": "372301199509074811",
 		"legalPersonPhone": "13800138002"
 	}
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"sourceProjectId": "",
+	"projectId": "",
+	"sourceUserId": "",
+	"serviceSn": "",
+	"amount": 50000,
+	"currency": "CNY",
+	"accountNo": "6214888888888888888",
+	"accountType": 0,
+	"accountName": "张三",
+	"accountProp": 1,
+	"idType": 10,
+	"bankCode": "CMB",
+	"openAccountProvince": "110000",
+	"openAccountCity": "110100",
+	"openAccountBankNameSub": "招商银行上地支行"
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1092,14 +1092,14 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2273,11 +2273,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="7" spans="2:4" ht="18">
       <c r="B7" s="1" t="s">
@@ -2676,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2718,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
@@ -3184,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
@@ -3302,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="34">
         <v>2000</v>
@@ -3510,36 +3510,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" customHeight="1">
       <c r="A2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>77</v>
-      </c>
       <c r="C2" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3622,33 +3622,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="187">
       <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>84</v>
       </c>
       <c r="E2" s="45">
         <v>2000</v>
@@ -3667,11 +3667,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
@@ -3702,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="408" customHeight="1">
@@ -3716,10 +3716,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="51">
+      <c r="E2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="49">
         <v>2000</v>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>17</v>
@@ -5120,17 +5120,17 @@
     </row>
     <row r="2" spans="1:6" ht="102">
       <c r="A2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>17</v>

--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB8287-7CAA-234D-84CC-DC99F74C4AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0BD0F6-25B6-5D4A-967C-C5BE93310BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <sheet name="deduction_share_sign" sheetId="17" r:id="rId18"/>
     <sheet name="upload" sheetId="18" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -742,6 +742,20 @@
 	"openAccountProvince": "110000",
 	"openAccountCity": "110100",
 	"openAccountBankNameSub": "招商银行上地支行"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "jkjr",
+  "sourceCode": "jkjr",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -989,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1100,6 +1114,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2676,7 +2693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5146,14 +5163,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28" style="23" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="23" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="23"/>
   </cols>
@@ -5175,7 +5194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" customHeight="1">
+    <row r="2" spans="1:5" ht="187">
       <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
@@ -5185,7 +5204,9 @@
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="52" t="s">
+        <v>91</v>
+      </c>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>

--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -8,55 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0BD0F6-25B6-5D4A-967C-C5BE93310BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E233D8-E56D-CF4B-AB92-9F5F64148CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
-    <sheet name="credit" sheetId="2" r:id="rId2"/>
-    <sheet name="query_result" sheetId="3" r:id="rId3"/>
-    <sheet name="query_user_amount" sheetId="4" r:id="rId4"/>
-    <sheet name="apply" sheetId="5" r:id="rId5"/>
-    <sheet name="cancel" sheetId="19" r:id="rId6"/>
-    <sheet name="contract_sign" sheetId="6" r:id="rId7"/>
-    <sheet name="contract_query" sheetId="7" r:id="rId8"/>
-    <sheet name="query_apply_result" sheetId="8" r:id="rId9"/>
-    <sheet name="image_upload" sheetId="9" r:id="rId10"/>
-    <sheet name="loan_pfa" sheetId="10" r:id="rId11"/>
-    <sheet name="pfa_query" sheetId="11" r:id="rId12"/>
-    <sheet name="query_repayment_plan" sheetId="12" r:id="rId13"/>
-    <sheet name="calculate" sheetId="13" r:id="rId14"/>
-    <sheet name="offline_repay" sheetId="14" r:id="rId15"/>
-    <sheet name="cash_push" sheetId="15" r:id="rId16"/>
-    <sheet name="project_cancel" sheetId="16" r:id="rId17"/>
-    <sheet name="deduction_share_sign" sheetId="17" r:id="rId18"/>
-    <sheet name="upload" sheetId="18" r:id="rId19"/>
+    <sheet name="credit" sheetId="2" r:id="rId1"/>
+    <sheet name="query_result" sheetId="3" r:id="rId2"/>
+    <sheet name="query_user_amount" sheetId="4" r:id="rId3"/>
+    <sheet name="apply" sheetId="5" r:id="rId4"/>
+    <sheet name="cancel" sheetId="19" r:id="rId5"/>
+    <sheet name="contract_sign" sheetId="6" r:id="rId6"/>
+    <sheet name="contract_query" sheetId="7" r:id="rId7"/>
+    <sheet name="query_apply_result" sheetId="8" r:id="rId8"/>
+    <sheet name="image_upload" sheetId="9" r:id="rId9"/>
+    <sheet name="loan_pfa" sheetId="10" r:id="rId10"/>
+    <sheet name="pfa_query" sheetId="11" r:id="rId11"/>
+    <sheet name="query_repayment_plan" sheetId="12" r:id="rId12"/>
+    <sheet name="calculate" sheetId="13" r:id="rId13"/>
+    <sheet name="offline_repay" sheetId="14" r:id="rId14"/>
+    <sheet name="cash_push" sheetId="15" r:id="rId15"/>
+    <sheet name="project_cancel" sheetId="16" r:id="rId16"/>
+    <sheet name="deduction_share_sign" sheetId="17" r:id="rId17"/>
+    <sheet name="upload" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
-  <si>
-    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
-  </si>
-  <si>
-    <t>Numbers 表格工作表名称</t>
-  </si>
-  <si>
-    <t>数字表格名称</t>
-  </si>
-  <si>
-    <t>Excel 工作表名称</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>casename</t>
   </si>
@@ -83,31 +64,16 @@
 }</t>
   </si>
   <si>
-    <t>query_result</t>
-  </si>
-  <si>
-    <t>query_user_amount</t>
-  </si>
-  <si>
-    <t>apply</t>
-  </si>
-  <si>
     <t>resultCode</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>contract_sign</t>
-  </si>
-  <si>
     <t>合同传输接口</t>
   </si>
   <si>
     <t>/api/v1/busi/contract/sign</t>
-  </si>
-  <si>
-    <t>contract_query</t>
   </si>
   <si>
     <t>合同结果查询接口</t>
@@ -128,9 +94,6 @@
 }</t>
   </si>
   <si>
-    <t>query_apply_result</t>
-  </si>
-  <si>
     <t>进件结果查询接口</t>
   </si>
   <si>
@@ -143,9 +106,6 @@
   "sourceProjectId":"10347408",
   "projectId":"43363695841005568"
 }</t>
-  </si>
-  <si>
-    <t>image_upload</t>
   </si>
   <si>
     <t>图片上传</t>
@@ -164,16 +124,10 @@
 }</t>
   </si>
   <si>
-    <t>loan_pfa</t>
-  </si>
-  <si>
     <t>放款申请</t>
   </si>
   <si>
     <t>/api/v1/busi/loan/pfa</t>
-  </si>
-  <si>
-    <t>pfa_query</t>
   </si>
   <si>
     <t>放款结果查询</t>
@@ -187,9 +141,6 @@
  "sourceCode":"jkjr",
  "serviceSn":"154790"
 }</t>
-  </si>
-  <si>
-    <t>query_repayment_plan</t>
   </si>
   <si>
     <t>国投云贷还款计划查询</t>
@@ -204,9 +155,6 @@
 	"transactionId": "39190",
 	"projectId": "383993201"
 }</t>
-  </si>
-  <si>
-    <t>calculate</t>
   </si>
   <si>
     <t>还款计划试算</t>
@@ -226,25 +174,16 @@
 }</t>
   </si>
   <si>
-    <t>offline_repay</t>
-  </si>
-  <si>
     <t>线下还款流水推送</t>
   </si>
   <si>
     <t>/api/v1/busi/offline/repay</t>
   </si>
   <si>
-    <t>cash_push</t>
-  </si>
-  <si>
     <t>资金流水推送</t>
   </si>
   <si>
     <t>/api/v1/busi/cash/push</t>
-  </si>
-  <si>
-    <t>project_cancel</t>
   </si>
   <si>
     <t>进件取消</t>
@@ -269,19 +208,19 @@
   </si>
   <si>
     <t>授信申请接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/jkjr/shd/credit/apply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>授信结果查询接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/credit/queryResult</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -289,15 +228,15 @@
   "sourceCode" : "jkjr",
   "creditId" : 1234567890000
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户额度查询接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/credit/queryUserAmount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -308,11 +247,11 @@
   "productCode" : "FQ_JK_CKSHD",
   "productGroup" : 1121
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/jkjr/shd/project/apply</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -341,7 +280,7 @@
 		"planCategory": 1
 	}]
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -365,35 +304,35 @@
   "acceptAccount" : "6214888888888888888",
   "finishTime" : "2020-05-06 12:30:30"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>casename</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>headers</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>resultCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>协议支付号共享推送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/busi/deduction/share</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -401,11 +340,11 @@
   "X-TBC-SIGN":"",
   "Content-Type":"application/json"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -435,7 +374,7 @@
 	"authLetterNo": "",
 	"mark": ""
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -443,15 +382,15 @@
   "X-TBC-SIGN":"",
   "Content-Type":"application/json"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>委托划扣协议上传</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/eridanus-api/contract/upload</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -465,19 +404,19 @@
  "sourceEnterpriseCode": "cloudloan",
  "sourceUserId": "5453434"
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>resultCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进件取消接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/busi/project/cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -486,7 +425,7 @@
   "sourceProjectId" : "string",
   "projectId" : "string"
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -638,7 +577,7 @@
 		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg"
 	}
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -721,7 +660,7 @@
 		"legalPersonPhone": "13800138002"
 	}
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -743,7 +682,7 @@
 	"openAccountCity": "110100",
 	"openAccountBankNameSub": "招商银行上地支行"
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -757,33 +696,18 @@
   "transactionId": "Test_45",
   "content": ""
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -806,24 +730,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1003,59 +915,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1069,52 +969,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2276,411 +2172,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="28" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="50" t="s">
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="7" spans="2:4" ht="18">
-      <c r="B7" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="16">
-      <c r="B9" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="16">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="16">
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="16">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="16">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" ht="16">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="16">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" ht="16">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16">
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="16">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16">
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" ht="16">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" ht="16">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="16">
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="16">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="16">
-      <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" ht="16">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="16">
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" ht="16">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="16">
-      <c r="B29" s="2" t="s">
+      <c r="F1" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="408" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" ht="16">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="16">
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" ht="16">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="16">
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" ht="16">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="16">
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" ht="16">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="16">
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" ht="16">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>54</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="45">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'credit'!R1C1" display="credit" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'query_result'!R1C1" display="query_result" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" location="'query_user_amount'!R1C1" display="query_user_amount" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D16" location="'apply'!R1C1" display="apply" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D18" location="'contract_sign'!R1C1" display="contract_sign" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D20" location="'contract_query'!R1C1" display="contract_query" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D22" location="'query_apply_result'!R1C1" display="query_apply_result" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D24" location="'image_upload'!R1C1" display="image_upload" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D26" location="'loan_pfa'!R1C1" display="loan_pfa" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D28" location="'pfa_query'!R1C1" display="pfa_query" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D30" location="'query_repayment_plan'!R1C1" display="query_repayment_plan" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D32" location="'calculate'!R1C1" display="calculate" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D34" location="'offline_repay'!R1C1" display="offline_repay" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D36" location="'cash_push'!R1C1" display="cash_push" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D38" location="'project_cancel'!R1C1" display="project_cancel" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="26" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="17.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="23" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="340">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="238" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2690,115 +2363,113 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="27" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="17.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="119" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="340">
-      <c r="A2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2808,113 +2479,113 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="25" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" style="28" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="23.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="25" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="119" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="119" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2924,113 +2595,113 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="29" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="14.1640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="26" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="153" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="119" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3040,113 +2711,115 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="30" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="30" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="30"/>
+    <col min="1" max="1" width="18.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="27" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3156,115 +2829,115 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="31" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="31"/>
+    <col min="1" max="1" width="14.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="28" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="372" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.5" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
+      <c r="E2" s="30">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3274,115 +2947,115 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" style="32" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="32" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="10.83203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="31" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="372" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="34">
+    </row>
+    <row r="2" spans="1:5" ht="204" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="30">
         <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3392,124 +3065,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="35" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="204" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382FE3-D2F0-424E-ABF5-CFA7319EAAAE}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3526,102 +3081,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>74</v>
+      <c r="A1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>78</v>
+      <c r="A2" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E488D21-AFE7-BD44-802F-9ED2FCC7413F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3638,119 +3193,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>74</v>
+      <c r="A1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="187">
-      <c r="A2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="45">
+      <c r="A2" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="41">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3" style="5" customWidth="1"/>
-    <col min="5" max="5" width="65" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="16.33203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="408" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="49">
-        <v>2000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3766,111 +3248,111 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="3" style="13" customWidth="1"/>
-    <col min="5" max="5" width="63.1640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="16.33203125" style="13"/>
+    <col min="1" max="1" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3" style="9" customWidth="1"/>
+    <col min="5" max="5" width="63.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="D2" s="4"/>
+      <c r="E2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="31">
         <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.25" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3879,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3895,55 +3377,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" style="14" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="16.33203125" style="14"/>
+    <col min="1" max="1" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="10" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="D2" s="4"/>
+      <c r="E2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="31">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3952,7 +3434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
@@ -3962,1135 +3444,1135 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="15" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" style="15" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="11" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" style="11" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="134" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="134" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="196" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="196" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="209" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="209" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="209" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="209" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="209" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="209" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="209" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="209" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="209" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="209" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="209" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="209" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="209" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="209" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="209" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="209" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="209" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="209" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="209" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="209" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="209" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="209" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="209" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="209" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="209" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="209" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="209" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="209" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="209" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="209" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="209" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="209" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="209" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" ht="209" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="209" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="209" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="209" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" ht="209" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" ht="209" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" ht="209" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" ht="209" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" ht="209" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" ht="209" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="209" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" ht="209" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" ht="209" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" ht="209" customHeight="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" ht="209" customHeight="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" ht="209" customHeight="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" ht="209" customHeight="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" ht="209" customHeight="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" ht="209" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6" ht="209" customHeight="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6" ht="209" customHeight="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="19"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" ht="209" customHeight="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="19"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6" ht="209" customHeight="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="19"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" ht="209" customHeight="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="19"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6" ht="209" customHeight="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="19"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" spans="1:6" ht="209" customHeight="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66" spans="1:6" ht="209" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="19"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67" spans="1:6" ht="209" customHeight="1">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="19"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6" ht="209" customHeight="1">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="19"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" ht="209" customHeight="1">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="19"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:6" ht="209" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="19"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="209" customHeight="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="19"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:6" ht="209" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="19"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="15"/>
     </row>
     <row r="73" spans="1:6" ht="209" customHeight="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="19"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74" spans="1:6" ht="209" customHeight="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="19"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="15"/>
     </row>
     <row r="75" spans="1:6" ht="209" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="19"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6" ht="209" customHeight="1">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="19"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="15"/>
     </row>
     <row r="77" spans="1:6" ht="209" customHeight="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="19"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" spans="1:6" ht="209" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="19"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79" spans="1:6" ht="209" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="19"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:6" ht="209" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="19"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="15"/>
     </row>
     <row r="81" spans="1:6" ht="209" customHeight="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="19"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82" spans="1:6" ht="209" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="19"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6" ht="209" customHeight="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="19"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" spans="1:6" ht="209" customHeight="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="19"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85" spans="1:6" ht="209" customHeight="1">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="19"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="15"/>
     </row>
     <row r="86" spans="1:6" ht="209" customHeight="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="19"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="1:6" ht="209" customHeight="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="19"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88" spans="1:6" ht="209" customHeight="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="19"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:6" ht="209" customHeight="1">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="19"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:6" ht="209" customHeight="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="19"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91" spans="1:6" ht="209" customHeight="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="19"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:6" ht="209" customHeight="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="19"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93" spans="1:6" ht="209" customHeight="1">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="19"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="1:6" ht="209" customHeight="1">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="19"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="15"/>
     </row>
     <row r="95" spans="1:6" ht="209" customHeight="1">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="19"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="15"/>
     </row>
     <row r="96" spans="1:6" ht="209" customHeight="1">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="19"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="15"/>
     </row>
     <row r="97" spans="1:6" ht="209" customHeight="1">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="19"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="15"/>
     </row>
     <row r="98" spans="1:6" ht="209" customHeight="1">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="19"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="15"/>
     </row>
     <row r="99" spans="1:6" ht="209" customHeight="1">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="19"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100" spans="1:6" ht="209" customHeight="1">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="19"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="1:6" ht="209" customHeight="1">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="19"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102" spans="1:6" ht="209" customHeight="1">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="19"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="15"/>
     </row>
     <row r="103" spans="1:6" ht="209" customHeight="1">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="19"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104" spans="1:6" ht="209" customHeight="1">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="19"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105" spans="1:6" ht="209" customHeight="1">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="19"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="15"/>
     </row>
     <row r="106" spans="1:6" ht="209" customHeight="1">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="19"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="15"/>
     </row>
     <row r="107" spans="1:6" ht="209" customHeight="1">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="19"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108" spans="1:6" ht="209" customHeight="1">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="19"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109" spans="1:6" ht="209" customHeight="1">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="19"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110" spans="1:6" ht="209" customHeight="1">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="19"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111" spans="1:6" ht="209" customHeight="1">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="19"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="1:6" ht="209" customHeight="1">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="19"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="1:6" ht="209" customHeight="1">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="19"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" spans="1:6" ht="209" customHeight="1">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="19"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115" spans="1:6" ht="209" customHeight="1">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="19"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116" spans="1:6" ht="209" customHeight="1">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="19"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117" spans="1:6" ht="209" customHeight="1">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="19"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="15"/>
     </row>
     <row r="118" spans="1:6" ht="209" customHeight="1">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="19"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="15"/>
     </row>
     <row r="119" spans="1:6" ht="209" customHeight="1">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="19"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="15"/>
     </row>
     <row r="120" spans="1:6" ht="209" customHeight="1">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="19"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="15"/>
     </row>
     <row r="121" spans="1:6" ht="209" customHeight="1">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="19"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="15"/>
     </row>
     <row r="122" spans="1:6" ht="209" customHeight="1">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="19"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="15"/>
     </row>
     <row r="123" spans="1:6" ht="209" customHeight="1">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="19"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124" spans="1:6" ht="209" customHeight="1">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="19"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="15"/>
     </row>
     <row r="125" spans="1:6" ht="209" customHeight="1">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="19"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="15"/>
     </row>
     <row r="126" spans="1:6" ht="209" customHeight="1">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="19"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="15"/>
     </row>
     <row r="127" spans="1:6" ht="209" customHeight="1">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="19"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="15"/>
     </row>
     <row r="128" spans="1:6" ht="209" customHeight="1">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="19"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="15"/>
     </row>
     <row r="129" spans="1:6" ht="209" customHeight="1">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="19"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="15"/>
     </row>
     <row r="130" spans="1:6" ht="209" customHeight="1">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="19"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="15"/>
     </row>
     <row r="131" spans="1:6" ht="209" customHeight="1">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="19"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" spans="1:6" ht="209" customHeight="1">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="19"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="15"/>
     </row>
     <row r="133" spans="1:6" ht="209" customHeight="1">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="19"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="15"/>
     </row>
     <row r="134" spans="1:6" ht="209" customHeight="1">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="19"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="15"/>
     </row>
     <row r="135" spans="1:6" ht="209" customHeight="1">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="19"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136" spans="1:6" ht="209" customHeight="1">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="19"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="15"/>
     </row>
     <row r="137" spans="1:6" ht="209" customHeight="1">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="19"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5099,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35296A30-DD15-F44D-BF26-D3957364C0A4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5116,159 +4598,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="102">
+      <c r="A2" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="102">
-      <c r="A2" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="17.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="187">
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="51.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="20" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="170" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="187">
-      <c r="A2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5278,113 +4876,113 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="24" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="41.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33" style="21" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="102" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="170" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5394,113 +4992,113 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="25" customWidth="1"/>
-    <col min="4" max="4" width="33" style="25" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="18.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="22" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="238" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="102" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E233D8-E56D-CF4B-AB92-9F5F64148CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD6E454-9B14-B746-B75F-B9BB358182C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="deduction_share_sign" sheetId="17" r:id="rId17"/>
     <sheet name="upload" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -344,36 +344,6 @@
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"sourceCode": "jkjr",
-	"channel": "jkjr",
-	"productGroupId": "1121",
-	"productCode": "FQ_JK_CKSHD",
-	"serviceSn": "394919",
-	"requestTime": "2020-08-28 00:00:00",
-	"sourceUserId": "1923",
-	"transactionId": "3938489495991",
-	"sourceProjectId": "8399",
-	"projectId": "182939",
-	"businessType": 1,
-	"name": "张三",
-	"cardType": 0,
-	"cardNo": 372301199510103811,
-	"accountType": 0,
-	"bankId": "89",
-	"bankName": "招商银行",
-	"bankCardAccountType": 0,
-	"bankNo": "6214888888888888888",
-	"bankPhone": "18833330022",
-	"bankValidity": "13800138001",
-	"bankSafetyCode": "3848193",
-	"signNo": "",
-	"authLetterNo": "",
-	"mark": ""
-}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -697,6 +667,36 @@
   "content": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "jkjr",
+	"channel": "jkjr",
+	"productGroupId": "1121",
+	"productCode": "FQ_JK_CKSHD",
+	"serviceSn": "394919",
+	"requestTime": "2020-08-28 00:00:00",
+	"sourceUserId": "1923",
+	"transactionId": "3938489495991",
+	"sourceProjectId": "8399",
+	"projectId": "182939",
+	"businessType": 1,
+	"name": "张三",
+	"cardType": 0,
+	"cardNo": 372301199510103811,
+	"accountType": 0,
+	"bankId": "86",
+	"bankName": "招商银行",
+	"bankCardAccountType": 0,
+	"bankNo": "6214888888888888888",
+	"bankPhone": "18833330022",
+	"bankValidity": "13800138001",
+	"bankSafetyCode": "3848193",
+	"signNo": "",
+	"authLetterNo": "",
+	"mark": ""
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2178,7 +2178,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2213,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="408" customHeight="1">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="45">
         <v>2000</v>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -3068,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382FE3-D2F0-424E-ABF5-CFA7319EAAAE}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3105,10 +3105,10 @@
         <v>56</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>58</v>
@@ -3211,16 +3211,16 @@
     </row>
     <row r="2" spans="1:5" ht="187">
       <c r="A2" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>62</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="41">
         <v>2000</v>
@@ -3274,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3403,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4619,17 +4619,17 @@
     </row>
     <row r="2" spans="1:6" ht="102">
       <c r="A2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4687,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>

--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD6E454-9B14-B746-B75F-B9BB358182C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C7E818-7C8B-C24A-8E58-65A89A8141FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -634,28 +634,6 @@
   </si>
   <si>
     <t>{
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
-	"sourceProjectId": "",
-	"projectId": "",
-	"sourceUserId": "",
-	"serviceSn": "",
-	"amount": 50000,
-	"currency": "CNY",
-	"accountNo": "6214888888888888888",
-	"accountType": 0,
-	"accountName": "张三",
-	"accountProp": 1,
-	"idType": 10,
-	"bankCode": "CMB",
-	"openAccountProvince": "110000",
-	"openAccountCity": "110100",
-	"openAccountBankNameSub": "招商银行上地支行"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "channel": "jkjr",
   "sourceCode": "jkjr",
   "serviceSn": "1547904999999",
@@ -697,6 +675,28 @@
 	"mark": ""
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"sourceProjectId": "",
+	"projectId": "",
+	"sourceUserId": "",
+	"serviceSn": "",
+	"amount": 50000,
+	"currency": "CNY",
+	"accountNo": "6214888888888888888",
+	"accountType": 0,
+	"accountName": "张三",
+	"accountProp": 1,
+	"idType": 10,
+	"bankCode": "CMB",
+	"openAccountProvince": "110000",
+	"openAccountCity": "110100",
+	"openAccountBankNameSub": "招商银行上地支行"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2248,7 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -3068,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382FE3-D2F0-424E-ABF5-CFA7319EAAAE}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3108,7 +3108,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>58</v>
@@ -3439,7 +3439,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4687,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>

--- a/data/jk_ckshd_test.xlsx
+++ b/data/jk_ckshd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C7E818-7C8B-C24A-8E58-65A89A8141FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746CA4D6-B6DF-F44A-B18D-FBD0C302145B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1980" windowWidth="22360" windowHeight="13880" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -112,16 +112,6 @@
   </si>
   <si>
     <t>/api/v1/busi/image/upload</t>
-  </si>
-  <si>
-    <t>{
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
-	"imageType": 30,
-	"bizType": 2,
-	"associationId": "83193",
-	"imageUrl": "https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1593405568034&amp;di=2a3f8ccccf1b5ccfed254e21aa3a9b3d&amp;imgtype=0&amp;src=http%3A%2F%2Fa2.att.hudong.com%2F36%2F48%2F19300001357258133412489354717.jpg"
-}</t>
   </si>
   <si>
     <t>放款申请</t>
@@ -695,6 +685,17 @@
 	"openAccountProvince": "110000",
 	"openAccountCity": "110100",
 	"openAccountBankNameSub": "招商银行上地支行"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"imageType": 30,
+	"bizType": 2,
+	"associationId": "83193",
+	"imageUrl": "https://th.bing.com/th/id/R65398d6ad86129f9628c0ad80da4040c?rik=C3qNS9mZOQk%2b5A&amp;riu=http%3a%2f%2fwww.shijuepi.com%2fuploads%2fallimg%2f200918%2f1-20091Q10420.jpg"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2213,22 +2214,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="408" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="45">
         <v>2000</v>
@@ -2248,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2281,16 +2282,16 @@
     </row>
     <row r="2" spans="1:5" ht="340">
       <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2397,16 +2398,16 @@
     </row>
     <row r="2" spans="1:5" ht="119" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2513,16 +2514,16 @@
     </row>
     <row r="2" spans="1:5" ht="119" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2629,16 +2630,16 @@
     </row>
     <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2747,16 +2748,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2865,16 +2866,16 @@
     </row>
     <row r="2" spans="1:5" ht="372" customHeight="1">
       <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="30">
         <v>2000</v>
@@ -2983,16 +2984,16 @@
     </row>
     <row r="2" spans="1:5" ht="204" customHeight="1">
       <c r="A2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="30">
         <v>2000</v>
@@ -3082,36 +3083,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" customHeight="1">
       <c r="A2" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>56</v>
-      </c>
       <c r="C2" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3194,33 +3195,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="187">
       <c r="A2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="41">
         <v>2000</v>
@@ -3274,22 +3275,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="31">
         <v>2000</v>
@@ -3403,22 +3404,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="31">
         <v>2000</v>
@@ -3478,14 +3479,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4619,17 +4620,17 @@
     </row>
     <row r="2" spans="1:6" ht="102">
       <c r="A2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>65</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4687,7 +4688,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -4995,7 +4996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
@@ -5034,8 +5037,8 @@
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
+      <c r="D2" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
